--- a/datos_prueba_tecnica.xlsx
+++ b/datos_prueba_tecnica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier Profesional\Desktop\GIT Javiergironlopez4979\PruebaTecnicaJGL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joselbe/Desktop/Seleccion 2023/Pruebas tecnicas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24F7D88A-9F50-4CB6-8784-01D02E4DB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39886FD-CA23-0944-9252-D20B4EB41A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="2064" windowWidth="17280" windowHeight="8964" xr2:uid="{85287762-2DC3-5C4A-B0B5-6A789885F17B}"/>
+    <workbookView xWindow="34540" yWindow="1840" windowWidth="28040" windowHeight="17440" xr2:uid="{85287762-2DC3-5C4A-B0B5-6A789885F17B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -717,21 +717,21 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -836,7 +836,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -941,7 +941,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
